--- a/biology/Histoire de la zoologie et de la botanique/Liste_de_carcinologistes/Liste_de_carcinologistes.xlsx
+++ b/biology/Histoire de la zoologie et de la botanique/Liste_de_carcinologistes/Liste_de_carcinologistes.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F2"/>
+  <dimension ref="A1:H2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t>Un carcinologiste est un scientifique qui étudie la carcinologie (ou science des crustacés).
 Alfred William Alcock
@@ -488,7 +500,7 @@
 Jerry Laurens Barnard
 Keppel Harcourt Barnard
 James Everard Benedict
-Dorothy E. Bliss - [1]
+Dorothy E. Bliss - 
 Louis-Eugène Bouvier
 Thomas Elliot Bowman III
 William Thomas Calman
@@ -500,7 +512,7 @@
 Isabel C. Pérez Farfante
 Bertrand Richer De Forges
 Henri Milne-Edwards
-Ray W. George - [2]
+Ray W. George - 
 Isabella Gordon
 Willem de Haan
 Hans Jacob Hansen
@@ -514,18 +526,18 @@
 Colin McLay
 Alphonse Milne-Edwards
 Théodore André Monod
-Peter K. L. Ng - [3]
-Mary Jane Rathbun - [4]
+Peter K. L. Ng - 
+Mary Jane Rathbun - 
 Richard Rathbun
-Harriet Richardson - [5]
-Michèle de Saint Laurent - [6]
+Harriet Richardson - 
+Michèle de Saint Laurent - 
 Georg Sars
 Michael Sars
 Waldo LaSalle Schmitt
 Alfred A. Smalley
 William Stimpson
-Jan Hendrik Stock - [7]
-K. K. Tiwari - [8]
+Jan Hendrik Stock - 
+K. K. Tiwari - 
 Austin Beatty Williams
 Mildred S. Wilson</t>
         </is>
